--- a/Exercise-3/Ex2/Matrix_Mult_Hybrid_MPI_OpenMP.xlsx
+++ b/Exercise-3/Ex2/Matrix_Mult_Hybrid_MPI_OpenMP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Parallel Systems and Programming\Programming Exercises\Exercise 3\Ex2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86AA574-CE98-4DBD-A098-6B79AF55AAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA370069-10C6-4F26-9623-A187C7F25BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{85821AAD-EDB9-47DB-9AF2-13C758685DDA}"/>
   </bookViews>
@@ -394,13 +394,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10.86308775</c:v>
+                  <c:v>7.0573187500000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.3886972499999999</c:v>
+                  <c:v>5.6618265000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9053380000000004</c:v>
+                  <c:v>2.7823577499999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -969,13 +969,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>11.057298500000002</c:v>
+                  <c:v>7.1815837499999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.6824852499999992</c:v>
+                  <c:v>5.7980802499999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.3373695000000003</c:v>
+                  <c:v>3.0388355000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2770,7 +2770,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2808,20 +2808,20 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12.051719</v>
+        <v>7.1673749999999998</v>
       </c>
       <c r="C2">
-        <v>11.920135</v>
+        <v>7.1831829999999997</v>
       </c>
       <c r="D2">
-        <v>9.2429240000000004</v>
+        <v>7.0804980000000004</v>
       </c>
       <c r="E2">
-        <v>11.014416000000001</v>
+        <v>7.2952789999999998</v>
       </c>
       <c r="F2">
         <f>AVERAGE(B2,C2,D2,E2)</f>
-        <v>11.057298500000002</v>
+        <v>7.1815837499999997</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2829,20 +2829,20 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>8.8508270000000007</v>
+        <v>5.8552590000000002</v>
       </c>
       <c r="C3">
-        <v>10.617022</v>
+        <v>5.7443160000000004</v>
       </c>
       <c r="D3">
-        <v>9.6189669999999996</v>
+        <v>5.8854540000000002</v>
       </c>
       <c r="E3">
-        <v>9.6431249999999995</v>
+        <v>5.7072919999999998</v>
       </c>
       <c r="F3">
         <f>AVERAGE(B3,C3,D3,E3)</f>
-        <v>9.6824852499999992</v>
+        <v>5.7980802499999999</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2850,20 +2850,20 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>5.6853540000000002</v>
+        <v>3.0548479999999998</v>
       </c>
       <c r="C4">
-        <v>5.5115660000000002</v>
+        <v>3.0208490000000001</v>
       </c>
       <c r="D4">
-        <v>5.3814070000000003</v>
+        <v>3.0833940000000002</v>
       </c>
       <c r="E4">
-        <v>4.7711509999999997</v>
+        <v>2.996251</v>
       </c>
       <c r="F4">
         <f>AVERAGE(B4,C4,D4,E4)</f>
-        <v>5.3373695000000003</v>
+        <v>3.0388355000000002</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2896,20 +2896,20 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>0.178728</v>
+        <v>0.124359</v>
       </c>
       <c r="C10">
-        <v>0.17244999999999999</v>
+        <v>0.127054</v>
       </c>
       <c r="D10">
-        <v>0.20949899999999999</v>
+        <v>0.122822</v>
       </c>
       <c r="E10">
-        <v>0.216166</v>
+        <v>0.122826</v>
       </c>
       <c r="F10">
         <f>AVERAGE(B10,C10,D10,E10)</f>
-        <v>0.19421074999999999</v>
+        <v>0.12426524999999999</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -2917,20 +2917,20 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>0.332256</v>
+        <v>0.12756200000000001</v>
       </c>
       <c r="C11">
-        <v>0.29177399999999998</v>
+        <v>0.14164499999999999</v>
       </c>
       <c r="D11">
-        <v>0.23199900000000001</v>
+        <v>0.130415</v>
       </c>
       <c r="E11">
-        <v>0.31912299999999999</v>
+        <v>0.14539299999999999</v>
       </c>
       <c r="F11">
         <f>AVERAGE(B11,C11,D11,E11)</f>
-        <v>0.29378799999999999</v>
+        <v>0.13625375000000001</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -2938,20 +2938,20 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>0.46275899999999998</v>
+        <v>0.22983600000000001</v>
       </c>
       <c r="C12">
-        <v>0.43077799999999999</v>
+        <v>0.22548199999999999</v>
       </c>
       <c r="D12">
-        <v>0.42403200000000002</v>
+        <v>0.33199499999999998</v>
       </c>
       <c r="E12">
-        <v>0.41055900000000001</v>
+        <v>0.238597</v>
       </c>
       <c r="F12">
         <f>AVERAGE(B12,C12,D12,E12)</f>
-        <v>0.43203199999999997</v>
+        <v>0.25647749999999997</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -2984,20 +2984,20 @@
         <v>2</v>
       </c>
       <c r="B18">
-        <v>11.872991000000001</v>
+        <v>7.0430159999999997</v>
       </c>
       <c r="C18">
-        <v>11.747685000000001</v>
+        <v>7.0561290000000003</v>
       </c>
       <c r="D18">
-        <v>9.0334260000000004</v>
+        <v>6.9576760000000002</v>
       </c>
       <c r="E18">
-        <v>10.798249</v>
+        <v>7.1724540000000001</v>
       </c>
       <c r="F18">
         <f>AVERAGE(B18,C18,D18,E18)</f>
-        <v>10.86308775</v>
+        <v>7.0573187500000003</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -3005,20 +3005,20 @@
         <v>4</v>
       </c>
       <c r="B19">
-        <v>8.5185709999999997</v>
+        <v>5.727697</v>
       </c>
       <c r="C19">
-        <v>10.325248</v>
+        <v>5.602671</v>
       </c>
       <c r="D19">
-        <v>9.3869679999999995</v>
+        <v>5.755039</v>
       </c>
       <c r="E19">
-        <v>9.3240020000000001</v>
+        <v>5.5618990000000004</v>
       </c>
       <c r="F19">
         <f>AVERAGE(B19,C19,D19,E19)</f>
-        <v>9.3886972499999999</v>
+        <v>5.6618265000000001</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -3026,20 +3026,20 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>5.2225960000000002</v>
+        <v>2.8250120000000001</v>
       </c>
       <c r="C20">
-        <v>5.0807880000000001</v>
+        <v>2.7953670000000002</v>
       </c>
       <c r="D20">
-        <v>4.9573749999999999</v>
+        <v>2.7513990000000002</v>
       </c>
       <c r="E20">
-        <v>4.3605929999999997</v>
+        <v>2.7576529999999999</v>
       </c>
       <c r="F20">
         <f>AVERAGE(B20,C20,D20,E20)</f>
-        <v>4.9053380000000004</v>
+        <v>2.7823577499999996</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">

--- a/Exercise-3/Ex2/Matrix_Mult_Hybrid_MPI_OpenMP.xlsx
+++ b/Exercise-3/Ex2/Matrix_Mult_Hybrid_MPI_OpenMP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Parallel Systems and Programming\Programming Exercises\Exercise 3\Ex2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA370069-10C6-4F26-9623-A187C7F25BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AEC8F7-3DC3-4A56-9796-37765FCE414F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{85821AAD-EDB9-47DB-9AF2-13C758685DDA}"/>
   </bookViews>
@@ -467,10 +467,16 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:rPr lang="en-US" sz="1200">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t># Processes</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -586,10 +592,16 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:rPr lang="en-US" sz="1200">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t>Time (sec)</a:t>
                 </a:r>
-                <a:endParaRPr lang="el-GR" sz="1200"/>
+                <a:endParaRPr lang="el-GR" sz="1200">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -723,7 +735,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -736,14 +748,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="en-US"/>
               <a:t>Matrix Multiplication running time</a:t>
             </a:r>
-            <a:endParaRPr lang="el-GR">
-              <a:effectLst/>
-            </a:endParaRPr>
+            <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -760,7 +768,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -797,27 +805,63 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:dLbls>
@@ -1029,7 +1073,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1068,7 +1112,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1090,14 +1134,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1154,7 +1192,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1193,7 +1231,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1215,11 +1253,489 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="452959967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="el-GR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Matrix Multiplication running time</a:t>
+            </a:r>
+            <a:endParaRPr lang="el-GR">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Φύλλο1!$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Μέσος Όρος</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.0024930793753628E-3"/>
+                  <c:y val="-5.543995648263287E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-BFB8-4671-A59B-C9CBB607F9F7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.4236266946713586E-2"/>
+                  <c:y val="-4.6905821791812137E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-BFB8-4671-A59B-C9CBB607F9F7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="el-GR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Φύλλο1!$A$10:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Φύλλο1!$F$10:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.12426524999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13625375000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25647749999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BFB8-4671-A59B-C9CBB607F9F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1168623375"/>
+        <c:axId val="1168624207"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1168623375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t># Processes</a:t>
+                </a:r>
+                <a:endParaRPr lang="el-GR" sz="1200">
+                  <a:effectLst/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1246,7 +1762,128 @@
             <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452959967"/>
+        <c:crossAx val="1168624207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1168624207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Time (sec)</a:t>
+                </a:r>
+                <a:endParaRPr lang="el-GR" sz="1200">
+                  <a:effectLst/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1168623375"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1375,6 +2012,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
   <cs:axisTitle>
@@ -1878,7 +2555,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1889,7 +2566,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1902,11 +2579,11 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1919,7 +2596,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1935,7 +2612,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1979,20 +2656,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -2001,13 +2678,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2019,30 +2696,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2082,23 +2760,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2145,14 +2822,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -2203,8 +2874,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2242,20 +2913,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2268,6 +2939,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2299,7 +2981,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2308,14 +2990,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2336,24 +3017,393 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2363,17 +3413,138 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2381,14 +3552,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2397,16 +3562,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1524002</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>30704</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>107576</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>26894</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>797860</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>26896</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2434,15 +3599,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:rowOff>75976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>89646</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>546848</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>125506</xdr:rowOff>
+      <xdr:rowOff>134470</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2462,6 +3627,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>89646</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>143436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>358587</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Γράφημα 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C309267B-A466-7D69-CF72-A9CB7692BCB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2769,8 +3970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C8DECF-A2AD-46A2-84B3-1FE2D5C7EF55}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Exercise-3/Ex2/Matrix_Mult_Hybrid_MPI_OpenMP.xlsx
+++ b/Exercise-3/Ex2/Matrix_Mult_Hybrid_MPI_OpenMP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Parallel Systems and Programming\Programming Exercises\Exercise 3\Ex2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AEC8F7-3DC3-4A56-9796-37765FCE414F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F467279A-2E4D-4D12-842E-96968BE5E6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{85821AAD-EDB9-47DB-9AF2-13C758685DDA}"/>
   </bookViews>
@@ -394,13 +394,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.0573187500000003</c:v>
+                  <c:v>39.961754999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6618265000000001</c:v>
+                  <c:v>38.520376499999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7823577499999996</c:v>
+                  <c:v>19.75689625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1013,13 +1013,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.1815837499999997</c:v>
+                  <c:v>40.025698000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7980802499999999</c:v>
+                  <c:v>38.670980999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0388355000000002</c:v>
+                  <c:v>20.22710575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1608,13 +1608,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.12426524999999999</c:v>
+                  <c:v>0.13894299999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13625375000000001</c:v>
+                  <c:v>0.1506045</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25647749999999997</c:v>
+                  <c:v>0.47020924999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3970,8 +3970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C8DECF-A2AD-46A2-84B3-1FE2D5C7EF55}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4009,20 +4009,20 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>7.1673749999999998</v>
+        <v>39.421962000000001</v>
       </c>
       <c r="C2">
-        <v>7.1831829999999997</v>
+        <v>39.756878</v>
       </c>
       <c r="D2">
-        <v>7.0804980000000004</v>
+        <v>40.743558</v>
       </c>
       <c r="E2">
-        <v>7.2952789999999998</v>
+        <v>40.180394</v>
       </c>
       <c r="F2">
         <f>AVERAGE(B2,C2,D2,E2)</f>
-        <v>7.1815837499999997</v>
+        <v>40.025698000000006</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -4030,20 +4030,20 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>5.8552590000000002</v>
+        <v>38.617897999999997</v>
       </c>
       <c r="C3">
-        <v>5.7443160000000004</v>
+        <v>38.130916999999997</v>
       </c>
       <c r="D3">
-        <v>5.8854540000000002</v>
+        <v>38.902315000000002</v>
       </c>
       <c r="E3">
-        <v>5.7072919999999998</v>
+        <v>39.032794000000003</v>
       </c>
       <c r="F3">
         <f>AVERAGE(B3,C3,D3,E3)</f>
-        <v>5.7980802499999999</v>
+        <v>38.670980999999998</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -4051,20 +4051,20 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>3.0548479999999998</v>
+        <v>20.035744999999999</v>
       </c>
       <c r="C4">
-        <v>3.0208490000000001</v>
+        <v>19.886908999999999</v>
       </c>
       <c r="D4">
-        <v>3.0833940000000002</v>
+        <v>20.764433</v>
       </c>
       <c r="E4">
-        <v>2.996251</v>
+        <v>20.221336000000001</v>
       </c>
       <c r="F4">
         <f>AVERAGE(B4,C4,D4,E4)</f>
-        <v>3.0388355000000002</v>
+        <v>20.22710575</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -4097,20 +4097,20 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>0.124359</v>
+        <v>0.13971600000000001</v>
       </c>
       <c r="C10">
-        <v>0.127054</v>
+        <v>0.139907</v>
       </c>
       <c r="D10">
-        <v>0.122822</v>
+        <v>0.137294</v>
       </c>
       <c r="E10">
-        <v>0.122826</v>
+        <v>0.13885500000000001</v>
       </c>
       <c r="F10">
         <f>AVERAGE(B10,C10,D10,E10)</f>
-        <v>0.12426524999999999</v>
+        <v>0.13894299999999998</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -4118,20 +4118,20 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>0.12756200000000001</v>
+        <v>0.15398999999999999</v>
       </c>
       <c r="C11">
-        <v>0.14164499999999999</v>
+        <v>0.149233</v>
       </c>
       <c r="D11">
-        <v>0.130415</v>
+        <v>0.14890100000000001</v>
       </c>
       <c r="E11">
-        <v>0.14539299999999999</v>
+        <v>0.15029400000000001</v>
       </c>
       <c r="F11">
         <f>AVERAGE(B11,C11,D11,E11)</f>
-        <v>0.13625375000000001</v>
+        <v>0.1506045</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -4139,20 +4139,20 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>0.22983600000000001</v>
+        <v>0.47295999999999999</v>
       </c>
       <c r="C12">
-        <v>0.22548199999999999</v>
+        <v>0.47224100000000002</v>
       </c>
       <c r="D12">
-        <v>0.33199499999999998</v>
+        <v>0.46598099999999998</v>
       </c>
       <c r="E12">
-        <v>0.238597</v>
+        <v>0.46965499999999999</v>
       </c>
       <c r="F12">
         <f>AVERAGE(B12,C12,D12,E12)</f>
-        <v>0.25647749999999997</v>
+        <v>0.47020924999999997</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -4185,20 +4185,20 @@
         <v>2</v>
       </c>
       <c r="B18">
-        <v>7.0430159999999997</v>
+        <v>39.282246000000001</v>
       </c>
       <c r="C18">
-        <v>7.0561290000000003</v>
+        <v>39.616970999999999</v>
       </c>
       <c r="D18">
-        <v>6.9576760000000002</v>
+        <v>40.906264</v>
       </c>
       <c r="E18">
-        <v>7.1724540000000001</v>
+        <v>40.041539</v>
       </c>
       <c r="F18">
         <f>AVERAGE(B18,C18,D18,E18)</f>
-        <v>7.0573187500000003</v>
+        <v>39.961754999999997</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -4206,20 +4206,20 @@
         <v>4</v>
       </c>
       <c r="B19">
-        <v>5.727697</v>
+        <v>38.463908000000004</v>
       </c>
       <c r="C19">
-        <v>5.602671</v>
+        <v>37.981684000000001</v>
       </c>
       <c r="D19">
-        <v>5.755039</v>
+        <v>38.753413999999999</v>
       </c>
       <c r="E19">
-        <v>5.5618990000000004</v>
+        <v>38.8825</v>
       </c>
       <c r="F19">
         <f>AVERAGE(B19,C19,D19,E19)</f>
-        <v>5.6618265000000001</v>
+        <v>38.520376499999998</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -4227,20 +4227,20 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>2.8250120000000001</v>
+        <v>19.562784000000001</v>
       </c>
       <c r="C20">
-        <v>2.7953670000000002</v>
+        <v>19.414667999999999</v>
       </c>
       <c r="D20">
-        <v>2.7513990000000002</v>
+        <v>20.298452000000001</v>
       </c>
       <c r="E20">
-        <v>2.7576529999999999</v>
+        <v>19.751681000000001</v>
       </c>
       <c r="F20">
         <f>AVERAGE(B20,C20,D20,E20)</f>
-        <v>2.7823577499999996</v>
+        <v>19.75689625</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">

--- a/Exercise-3/Ex2/Matrix_Mult_Hybrid_MPI_OpenMP.xlsx
+++ b/Exercise-3/Ex2/Matrix_Mult_Hybrid_MPI_OpenMP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Parallel Systems and Programming\Programming Exercises\Exercise 3\Ex2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F467279A-2E4D-4D12-842E-96968BE5E6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8FA964-DEA3-4ACA-9303-9CE271A3BCA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{85821AAD-EDB9-47DB-9AF2-13C758685DDA}"/>
   </bookViews>
@@ -394,13 +394,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>39.961754999999997</c:v>
+                  <c:v>40.370110500000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.520376499999998</c:v>
+                  <c:v>37.182873000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.75689625</c:v>
+                  <c:v>18.163487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1013,13 +1013,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>40.025698000000006</c:v>
+                  <c:v>40.507811750000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.670980999999998</c:v>
+                  <c:v>37.338595500000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.22710575</c:v>
+                  <c:v>21.254195500000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1608,13 +1608,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.13894299999999998</c:v>
+                  <c:v>0.13770074999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1506045</c:v>
+                  <c:v>0.15213825</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47020924999999997</c:v>
+                  <c:v>3.4046240000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3970,7 +3970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C8DECF-A2AD-46A2-84B3-1FE2D5C7EF55}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B18" sqref="B18:F20"/>
     </sheetView>
   </sheetViews>
@@ -4009,20 +4009,20 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>39.421962000000001</v>
+        <v>40.428210999999997</v>
       </c>
       <c r="C2">
-        <v>39.756878</v>
+        <v>40.439597999999997</v>
       </c>
       <c r="D2">
-        <v>40.743558</v>
+        <v>40.082047000000003</v>
       </c>
       <c r="E2">
-        <v>40.180394</v>
+        <v>41.081391000000004</v>
       </c>
       <c r="F2">
         <f>AVERAGE(B2,C2,D2,E2)</f>
-        <v>40.025698000000006</v>
+        <v>40.507811750000002</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -4030,20 +4030,20 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>38.617897999999997</v>
+        <v>37.288961999999998</v>
       </c>
       <c r="C3">
-        <v>38.130916999999997</v>
+        <v>36.580767999999999</v>
       </c>
       <c r="D3">
-        <v>38.902315000000002</v>
+        <v>37.369402000000001</v>
       </c>
       <c r="E3">
-        <v>39.032794000000003</v>
+        <v>38.115250000000003</v>
       </c>
       <c r="F3">
         <f>AVERAGE(B3,C3,D3,E3)</f>
-        <v>38.670980999999998</v>
+        <v>37.338595500000004</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -4051,20 +4051,20 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>20.035744999999999</v>
+        <v>19.993459999999999</v>
       </c>
       <c r="C4">
-        <v>19.886908999999999</v>
+        <v>22.239153999999999</v>
       </c>
       <c r="D4">
-        <v>20.764433</v>
+        <v>21.376968999999999</v>
       </c>
       <c r="E4">
-        <v>20.221336000000001</v>
+        <v>21.407198999999999</v>
       </c>
       <c r="F4">
         <f>AVERAGE(B4,C4,D4,E4)</f>
-        <v>20.22710575</v>
+        <v>21.254195500000002</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -4097,20 +4097,20 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>0.13971600000000001</v>
+        <v>0.13619999999999999</v>
       </c>
       <c r="C10">
-        <v>0.139907</v>
+        <v>0.13976</v>
       </c>
       <c r="D10">
-        <v>0.137294</v>
+        <v>0.139353</v>
       </c>
       <c r="E10">
-        <v>0.13885500000000001</v>
+        <v>0.13549</v>
       </c>
       <c r="F10">
         <f>AVERAGE(B10,C10,D10,E10)</f>
-        <v>0.13894299999999998</v>
+        <v>0.13770074999999998</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -4118,20 +4118,20 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>0.15398999999999999</v>
+        <v>0.15085399999999999</v>
       </c>
       <c r="C11">
-        <v>0.149233</v>
+        <v>0.15085399999999999</v>
       </c>
       <c r="D11">
-        <v>0.14890100000000001</v>
+        <v>0.154359</v>
       </c>
       <c r="E11">
-        <v>0.15029400000000001</v>
+        <v>0.15248600000000001</v>
       </c>
       <c r="F11">
         <f>AVERAGE(B11,C11,D11,E11)</f>
-        <v>0.1506045</v>
+        <v>0.15213825</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -4139,20 +4139,20 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>0.47295999999999999</v>
+        <v>1.827866</v>
       </c>
       <c r="C12">
-        <v>0.47224100000000002</v>
+        <v>4.4473890000000003</v>
       </c>
       <c r="D12">
-        <v>0.46598099999999998</v>
+        <v>3.8611089999999999</v>
       </c>
       <c r="E12">
-        <v>0.46965499999999999</v>
+        <v>3.482132</v>
       </c>
       <c r="F12">
         <f>AVERAGE(B12,C12,D12,E12)</f>
-        <v>0.47020924999999997</v>
+        <v>3.4046240000000001</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -4185,20 +4185,20 @@
         <v>2</v>
       </c>
       <c r="B18">
-        <v>39.282246000000001</v>
+        <v>40.292009999999998</v>
       </c>
       <c r="C18">
-        <v>39.616970999999999</v>
+        <v>40.299836999999997</v>
       </c>
       <c r="D18">
-        <v>40.906264</v>
+        <v>39.942694000000003</v>
       </c>
       <c r="E18">
-        <v>40.041539</v>
+        <v>40.945900999999999</v>
       </c>
       <c r="F18">
         <f>AVERAGE(B18,C18,D18,E18)</f>
-        <v>39.961754999999997</v>
+        <v>40.370110500000003</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -4206,20 +4206,20 @@
         <v>4</v>
       </c>
       <c r="B19">
-        <v>38.463908000000004</v>
+        <v>37.138106999999998</v>
       </c>
       <c r="C19">
-        <v>37.981684000000001</v>
+        <v>36.415577999999996</v>
       </c>
       <c r="D19">
-        <v>38.753413999999999</v>
+        <v>37.215043000000001</v>
       </c>
       <c r="E19">
-        <v>38.8825</v>
+        <v>37.962764</v>
       </c>
       <c r="F19">
         <f>AVERAGE(B19,C19,D19,E19)</f>
-        <v>38.520376499999998</v>
+        <v>37.182873000000001</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -4227,20 +4227,20 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>19.562784000000001</v>
+        <v>18.165593000000001</v>
       </c>
       <c r="C20">
-        <v>19.414667999999999</v>
+        <v>17.791765999999999</v>
       </c>
       <c r="D20">
-        <v>20.298452000000001</v>
+        <v>18.771522000000001</v>
       </c>
       <c r="E20">
-        <v>19.751681000000001</v>
+        <v>17.925066999999999</v>
       </c>
       <c r="F20">
         <f>AVERAGE(B20,C20,D20,E20)</f>
-        <v>19.75689625</v>
+        <v>18.163487</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
